--- a/stats/summary.xlsx
+++ b/stats/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Darren/Desktop/NUS/CS4244/Project/stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB32E5E-B44B-7D4E-B48D-EFAC18AAF6C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D9C406-BEE5-AA45-A2F9-554A498A99EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{BF53B1BD-4DDC-4346-8A01-FBAE12230D1A}"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{BF53B1BD-4DDC-4346-8A01-FBAE12230D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="k3" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>r</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>time taken</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>UNSAT</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -249,38 +258,13 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -429,13 +413,38 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -2641,15 +2650,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'k4'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>SAT</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2988,7 +2989,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>unsat</c:v>
+                  <c:v>UNSAT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3330,7 +3331,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>error</c:v>
+                  <c:v>ERROR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3345,77 +3346,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="47"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-34FA-3D4A-826D-69AD8489BC00}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'k4'!$E$2:$E$50</c:f>
@@ -4849,7 +4779,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sat</c:v>
+                  <c:v>SAT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5191,7 +5121,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>unsat</c:v>
+                  <c:v>UNSAT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5533,7 +5463,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>error</c:v>
+                  <c:v>ERROR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10479,7 +10409,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0A63B00-B8EF-C547-A006-FCE7F52DB448}" name="Table1" displayName="Table1" ref="A1:C2452" totalsRowCount="1">
   <autoFilter ref="A1:C2451" xr:uid="{3557C27E-014E-1640-AC51-A0D72E2E9376}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4287B119-3EE0-CF42-AD54-6603C6F0659B}" name="r" totalsRowLabel="Total" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{4287B119-3EE0-CF42-AD54-6603C6F0659B}" name="r" totalsRowLabel="Total" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{EAB1EF77-9DDF-0D42-B6AD-BB420A9BFF95}" name="time taken to solve (ms)"/>
     <tableColumn id="4" xr3:uid="{34E48576-52C3-0744-8C4A-0E7D957DA45B}" name="satisfiability" totalsRowFunction="count"/>
   </tableColumns>
@@ -10488,17 +10418,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E7F26DE3-1EDF-734F-AA8C-9414A293E79B}" name="Table4" displayName="Table4" ref="E1:I50" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E7F26DE3-1EDF-734F-AA8C-9414A293E79B}" name="Table4" displayName="Table4" ref="E1:I50" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="E1:I50" xr:uid="{F2E0C88E-8EF2-4B47-9851-FAF3DAE8E74B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{02C69ACA-A389-2C47-8E22-1E829C2D2F8A}" name="r" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4553187F-DB6C-EB4D-8C15-880F376F342A}" name="sat" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{02C69ACA-A389-2C47-8E22-1E829C2D2F8A}" name="r" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4553187F-DB6C-EB4D-8C15-880F376F342A}" name="sat" dataDxfId="6">
       <calculatedColumnFormula>COUNTIFS(Table1[r],E2,Table1[satisfiability],TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{68B2F4DD-2F44-D447-B9EF-2FA1E30CA557}" name="unsat" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{68B2F4DD-2F44-D447-B9EF-2FA1E30CA557}" name="unsat" dataDxfId="5">
       <calculatedColumnFormula>COUNTIFS(Table1[r],E2,Table1[satisfiability],FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{25640C35-602F-9C46-8D99-751D0AED0722}" name="error" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{25640C35-602F-9C46-8D99-751D0AED0722}" name="error" dataDxfId="4">
       <calculatedColumnFormula>50-G2-F2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{A93D8D4D-C5EE-F344-BB7B-53EE8BF535B6}" name="time taken">
@@ -10525,17 +10455,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31440048-A8BB-B442-A234-5676B286FC71}" name="Table5" displayName="Table5" ref="E1:I50" totalsRowShown="0">
   <autoFilter ref="E1:I50" xr:uid="{D803AA5C-D074-6B48-94F3-11ADECD04044}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{60597CCD-C727-1545-BC30-A6B70815AB38}" name="r" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E3822AAE-3635-2C49-83B8-4E8D3F1001CB}" name="sat">
+    <tableColumn id="1" xr3:uid="{60597CCD-C727-1545-BC30-A6B70815AB38}" name="r" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E3822AAE-3635-2C49-83B8-4E8D3F1001CB}" name="SAT">
       <calculatedColumnFormula>COUNTIFS(Table2[r],E2,Table2[satisfiability],TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8155F377-828C-1647-ACC5-2CFCEBD6701C}" name="unsat">
+    <tableColumn id="3" xr3:uid="{8155F377-828C-1647-ACC5-2CFCEBD6701C}" name="UNSAT">
       <calculatedColumnFormula>COUNTIFS(Table2[r],E2,Table2[satisfiability],FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{19F09574-DBCE-BC4F-B7D4-BE6C9388DE87}" name="error">
+    <tableColumn id="4" xr3:uid="{19F09574-DBCE-BC4F-B7D4-BE6C9388DE87}" name="ERROR">
       <calculatedColumnFormula>50-G2-F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9A0B8B24-7E47-6A47-9D0B-E20FB7F7DC81}" name="time taken" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{9A0B8B24-7E47-6A47-9D0B-E20FB7F7DC81}" name="time taken" dataDxfId="2">
       <calculatedColumnFormula>AVERAGEIFS(Table2[time taken to solve (ms)],Table2[r],E2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10559,14 +10489,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{50506911-031E-244B-AC14-7AA85901FD37}" name="Table6" displayName="Table6" ref="E1:I50" totalsRowShown="0">
   <autoFilter ref="E1:I50" xr:uid="{A6C24464-EFDB-334D-8B98-79E620F4B06B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{852D4854-5D1C-E44E-8F0E-710F0EEE867E}" name="r" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{6BBA578D-182E-0849-B4E6-E296C3AB1133}" name="sat">
+    <tableColumn id="1" xr3:uid="{852D4854-5D1C-E44E-8F0E-710F0EEE867E}" name="r" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6BBA578D-182E-0849-B4E6-E296C3AB1133}" name="SAT">
       <calculatedColumnFormula>COUNTIFS(Table3[r],E2,Table3[satisfiability],TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B6A699B2-C9F0-9F46-B2CC-4C7342038485}" name="unsat">
+    <tableColumn id="3" xr3:uid="{B6A699B2-C9F0-9F46-B2CC-4C7342038485}" name="UNSAT">
       <calculatedColumnFormula>COUNTIFS(Table3[r],E2,Table3[satisfiability],FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{805FB5EA-470F-5149-ADC4-22666A57BBD6}" name="error">
+    <tableColumn id="4" xr3:uid="{805FB5EA-470F-5149-ADC4-22666A57BBD6}" name="ERROR">
       <calculatedColumnFormula>50-G2-F2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{F1545CB8-D8AD-6247-A4CB-129E8ABC9454}" name="time taken" dataDxfId="0">
@@ -10876,7 +10806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D254035-8259-5241-9941-6BBA8585FD8C}">
   <dimension ref="A1:I2452"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -38817,8 +38747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C45337-D215-384B-AE1D-F9DDE71B4B34}">
   <dimension ref="A1:I2207"/>
   <sheetViews>
-    <sheetView topLeftCell="F21" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38841,13 +38771,13 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>7</v>
@@ -64064,8 +63994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E966CBF-B277-E442-8001-18384E075F9B}">
   <dimension ref="A1:I2451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64088,13 +64018,13 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>7</v>
